--- a/experiment_results/SBFL_ONLY/ZipMe/3Bug.xlsx
+++ b/experiment_results/SBFL_ONLY/ZipMe/3Bug.xlsx
@@ -28,7 +28,7 @@
     <sheet name="Dice" sheetId="19" r:id="rId19"/>
     <sheet name="Humman" sheetId="20" r:id="rId20"/>
     <sheet name="Wong2" sheetId="21" r:id="rId21"/>
-    <sheet name="Wong3" sheetId="22" r:id="rId22"/>
+    <sheet name="Euclid" sheetId="22" r:id="rId22"/>
     <sheet name="Zoltar" sheetId="23" r:id="rId23"/>
     <sheet name="Rogot2" sheetId="24" r:id="rId24"/>
     <sheet name="Hamming" sheetId="25" r:id="rId25"/>
@@ -32520,10 +32520,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>1318</v>
+        <v>2098</v>
       </c>
       <c r="D2">
-        <v>56.22866894197952</v>
+        <v>89.50511945392492</v>
       </c>
       <c r="E2">
         <v>2344</v>
@@ -32534,10 +32534,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>1308</v>
+        <v>1245</v>
       </c>
       <c r="D3">
-        <v>55.80204778156996</v>
+        <v>53.11433447098977</v>
       </c>
       <c r="E3">
         <v>2344</v>
@@ -32548,10 +32548,10 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>2.005119453924915</v>
+        <v>0.7679180887372014</v>
       </c>
       <c r="E4">
         <v>2344</v>
@@ -32579,10 +32579,10 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="D6">
-        <v>2.738553701326487</v>
+        <v>0.47068891741549</v>
       </c>
       <c r="E6">
         <v>2337</v>
@@ -32593,10 +32593,10 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>1.839965768078733</v>
+        <v>0.2139495079161318</v>
       </c>
       <c r="E7">
         <v>2337</v>
@@ -32610,10 +32610,10 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>108</v>
+        <v>1956</v>
       </c>
       <c r="D8">
-        <v>4.611443210930828</v>
+        <v>83.51836037574722</v>
       </c>
       <c r="E8">
         <v>2342</v>
@@ -32624,10 +32624,10 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>1601</v>
       </c>
       <c r="D9">
-        <v>1.323654995730145</v>
+        <v>68.36037574722459</v>
       </c>
       <c r="E9">
         <v>2342</v>
@@ -32638,10 +32638,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>1.537147736976943</v>
+        <v>0.04269854824935952</v>
       </c>
       <c r="E10">
         <v>2342</v>
@@ -32655,10 +32655,10 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>1.379310344827586</v>
+        <v>0.1293103448275862</v>
       </c>
       <c r="E11">
         <v>2320</v>
@@ -32669,10 +32669,10 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>1418</v>
+        <v>2075</v>
       </c>
       <c r="D12">
-        <v>61.12068965517241</v>
+        <v>89.43965517241379</v>
       </c>
       <c r="E12">
         <v>2320</v>
@@ -32683,10 +32683,10 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>110</v>
+        <v>1579</v>
       </c>
       <c r="D13">
-        <v>4.741379310344827</v>
+        <v>68.06034482758621</v>
       </c>
       <c r="E13">
         <v>2320</v>
@@ -32700,10 +32700,10 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <v>1395</v>
+        <v>2095</v>
       </c>
       <c r="D14">
-        <v>59.58991883810337</v>
+        <v>89.49167022639898</v>
       </c>
       <c r="E14">
         <v>2341</v>
@@ -32714,10 +32714,10 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>55</v>
+        <v>1618</v>
       </c>
       <c r="D15">
-        <v>2.349423323366083</v>
+        <v>69.1157624946604</v>
       </c>
       <c r="E15">
         <v>2341</v>
@@ -32728,10 +32728,10 @@
         <v>8</v>
       </c>
       <c r="C16">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>4.399829132849209</v>
+        <v>0.7689021785561726</v>
       </c>
       <c r="E16">
         <v>2341</v>
@@ -32745,10 +32745,10 @@
         <v>13</v>
       </c>
       <c r="C17">
-        <v>104</v>
+        <v>1939</v>
       </c>
       <c r="D17">
-        <v>4.463519313304721</v>
+        <v>83.21888412017168</v>
       </c>
       <c r="E17">
         <v>2330</v>
@@ -32759,10 +32759,10 @@
         <v>6</v>
       </c>
       <c r="C18">
-        <v>1353</v>
+        <v>2085</v>
       </c>
       <c r="D18">
-        <v>58.068669527897</v>
+        <v>89.48497854077253</v>
       </c>
       <c r="E18">
         <v>2330</v>
@@ -32773,10 +32773,10 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>1343</v>
+        <v>1185</v>
       </c>
       <c r="D19">
-        <v>57.63948497854076</v>
+        <v>50.85836909871244</v>
       </c>
       <c r="E19">
         <v>2330</v>
@@ -32790,10 +32790,10 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>1.116838487972509</v>
+        <v>0.1288659793814433</v>
       </c>
       <c r="E20">
         <v>2328</v>
@@ -32804,10 +32804,10 @@
         <v>13</v>
       </c>
       <c r="C21">
-        <v>109</v>
+        <v>1937</v>
       </c>
       <c r="D21">
-        <v>4.68213058419244</v>
+        <v>83.2044673539519</v>
       </c>
       <c r="E21">
         <v>2328</v>
@@ -32818,10 +32818,10 @@
         <v>6</v>
       </c>
       <c r="C22">
-        <v>1374</v>
+        <v>2083</v>
       </c>
       <c r="D22">
-        <v>59.02061855670103</v>
+        <v>89.47594501718214</v>
       </c>
       <c r="E22">
         <v>2328</v>
@@ -32835,10 +32835,10 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D23">
-        <v>1.357658039881205</v>
+        <v>0.127280441238863</v>
       </c>
       <c r="E23">
         <v>2357</v>
@@ -32849,10 +32849,10 @@
         <v>11</v>
       </c>
       <c r="C24">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="D24">
-        <v>2.503182011030971</v>
+        <v>0.2121340687314383</v>
       </c>
       <c r="E24">
         <v>2357</v>
@@ -32863,10 +32863,10 @@
         <v>8</v>
       </c>
       <c r="C25">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>3.266864658464149</v>
+        <v>0.975816716164616</v>
       </c>
       <c r="E25">
         <v>2357</v>
@@ -32880,10 +32880,10 @@
         <v>13</v>
       </c>
       <c r="C26">
-        <v>149</v>
+        <v>1939</v>
       </c>
       <c r="D26">
-        <v>6.403094112591319</v>
+        <v>83.32617103566824</v>
       </c>
       <c r="E26">
         <v>2327</v>
@@ -32894,10 +32894,10 @@
         <v>6</v>
       </c>
       <c r="C27">
-        <v>1411</v>
+        <v>2082</v>
       </c>
       <c r="D27">
-        <v>60.63601203266008</v>
+        <v>89.47142243231629</v>
       </c>
       <c r="E27">
         <v>2327</v>
@@ -32908,10 +32908,10 @@
         <v>14</v>
       </c>
       <c r="C28">
-        <v>26</v>
+        <v>1582</v>
       </c>
       <c r="D28">
-        <v>1.11731843575419</v>
+        <v>67.98452943704341</v>
       </c>
       <c r="E28">
         <v>2327</v>
@@ -32925,10 +32925,10 @@
         <v>14</v>
       </c>
       <c r="C29">
-        <v>32</v>
+        <v>1618</v>
       </c>
       <c r="D29">
-        <v>1.369276850663244</v>
+        <v>69.23406076166025</v>
       </c>
       <c r="E29">
         <v>2337</v>
@@ -32939,10 +32939,10 @@
         <v>7</v>
       </c>
       <c r="C30">
-        <v>1353</v>
+        <v>1242</v>
       </c>
       <c r="D30">
-        <v>57.89473684210527</v>
+        <v>53.14505776636713</v>
       </c>
       <c r="E30">
         <v>2337</v>
@@ -32953,10 +32953,10 @@
         <v>8</v>
       </c>
       <c r="C31">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="D31">
-        <v>3.423192126658109</v>
+        <v>0.7702182284980745</v>
       </c>
       <c r="E31">
         <v>2337</v>
@@ -32970,10 +32970,10 @@
         <v>14</v>
       </c>
       <c r="C32">
-        <v>22</v>
+        <v>1597</v>
       </c>
       <c r="D32">
-        <v>0.9417808219178082</v>
+        <v>68.36472602739725</v>
       </c>
       <c r="E32">
         <v>2336</v>
@@ -32984,10 +32984,10 @@
         <v>7</v>
       </c>
       <c r="C33">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>4.409246575342466</v>
+        <v>0.2568493150684931</v>
       </c>
       <c r="E33">
         <v>2336</v>
@@ -32998,10 +32998,10 @@
         <v>11</v>
       </c>
       <c r="C34">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>1.155821917808219</v>
+        <v>0.04280821917808219</v>
       </c>
       <c r="E34">
         <v>2336</v>
@@ -33015,10 +33015,10 @@
         <v>19</v>
       </c>
       <c r="C35">
-        <v>1310</v>
+        <v>1263</v>
       </c>
       <c r="D35">
-        <v>55.53200508690123</v>
+        <v>53.53963543874522</v>
       </c>
       <c r="E35">
         <v>2359</v>
@@ -33029,10 +33029,10 @@
         <v>11</v>
       </c>
       <c r="C36">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>1.35650699448919</v>
+        <v>0.0423908435777872</v>
       </c>
       <c r="E36">
         <v>2359</v>
@@ -33043,10 +33043,10 @@
         <v>8</v>
       </c>
       <c r="C37">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D37">
-        <v>2.11954217888936</v>
+        <v>0.8054260279779568</v>
       </c>
       <c r="E37">
         <v>2359</v>
@@ -33060,10 +33060,10 @@
         <v>6</v>
       </c>
       <c r="C38">
-        <v>1305</v>
+        <v>2075</v>
       </c>
       <c r="D38">
-        <v>56.22576475657044</v>
+        <v>89.40112020680741</v>
       </c>
       <c r="E38">
         <v>2321</v>
@@ -33074,10 +33074,10 @@
         <v>14</v>
       </c>
       <c r="C39">
-        <v>26</v>
+        <v>1578</v>
       </c>
       <c r="D39">
-        <v>1.120206807410599</v>
+        <v>67.98793623438173</v>
       </c>
       <c r="E39">
         <v>2321</v>
@@ -33088,10 +33088,10 @@
         <v>19</v>
       </c>
       <c r="C40">
-        <v>1295</v>
+        <v>1179</v>
       </c>
       <c r="D40">
-        <v>55.79491598448945</v>
+        <v>50.79707022834985</v>
       </c>
       <c r="E40">
         <v>2321</v>
@@ -33119,10 +33119,10 @@
         <v>6</v>
       </c>
       <c r="C42">
-        <v>1268</v>
+        <v>2076</v>
       </c>
       <c r="D42">
-        <v>54.60809646856158</v>
+        <v>89.40568475452196</v>
       </c>
       <c r="E42">
         <v>2322</v>
@@ -33133,10 +33133,10 @@
         <v>19</v>
       </c>
       <c r="C43">
-        <v>1258</v>
+        <v>1203</v>
       </c>
       <c r="D43">
-        <v>54.17743324720069</v>
+        <v>51.80878552971576</v>
       </c>
       <c r="E43">
         <v>2322</v>
@@ -33150,10 +33150,10 @@
         <v>16</v>
       </c>
       <c r="C44">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="D44">
-        <v>3.626279863481229</v>
+        <v>0.1279863481228669</v>
       </c>
       <c r="E44">
         <v>2344</v>
@@ -33164,10 +33164,10 @@
         <v>13</v>
       </c>
       <c r="C45">
-        <v>174</v>
+        <v>1953</v>
       </c>
       <c r="D45">
-        <v>7.423208191126279</v>
+        <v>83.31911262798634</v>
       </c>
       <c r="E45">
         <v>2344</v>
@@ -33178,10 +33178,10 @@
         <v>11</v>
       </c>
       <c r="C46">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="D46">
-        <v>4.948805460750854</v>
+        <v>0.1706484641638225</v>
       </c>
       <c r="E46">
         <v>2344</v>
@@ -33195,10 +33195,10 @@
         <v>7</v>
       </c>
       <c r="C47">
-        <v>1276</v>
+        <v>1245</v>
       </c>
       <c r="D47">
-        <v>54.52991452991453</v>
+        <v>53.2051282051282</v>
       </c>
       <c r="E47">
         <v>2340</v>
@@ -33209,10 +33209,10 @@
         <v>19</v>
       </c>
       <c r="C48">
-        <v>1276</v>
+        <v>1245</v>
       </c>
       <c r="D48">
-        <v>54.52991452991453</v>
+        <v>53.2051282051282</v>
       </c>
       <c r="E48">
         <v>2340</v>
@@ -33223,10 +33223,10 @@
         <v>8</v>
       </c>
       <c r="C49">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D49">
-        <v>2.008547008547009</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="E49">
         <v>2340</v>
@@ -33240,10 +33240,10 @@
         <v>10</v>
       </c>
       <c r="C50">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D50">
-        <v>1.123110151187905</v>
+        <v>0.1295896328293737</v>
       </c>
       <c r="E50">
         <v>2315</v>
@@ -33254,10 +33254,10 @@
         <v>14</v>
       </c>
       <c r="C51">
-        <v>30</v>
+        <v>1576</v>
       </c>
       <c r="D51">
-        <v>1.295896328293737</v>
+        <v>68.07775377969763</v>
       </c>
       <c r="E51">
         <v>2315</v>
@@ -33268,10 +33268,10 @@
         <v>19</v>
       </c>
       <c r="C52">
-        <v>1284</v>
+        <v>1200</v>
       </c>
       <c r="D52">
-        <v>55.46436285097192</v>
+        <v>51.83585313174947</v>
       </c>
       <c r="E52">
         <v>2315</v>
@@ -33285,10 +33285,10 @@
         <v>13</v>
       </c>
       <c r="C53">
-        <v>75</v>
+        <v>1937</v>
       </c>
       <c r="D53">
-        <v>3.228583727938012</v>
+        <v>83.38355574687904</v>
       </c>
       <c r="E53">
         <v>2323</v>
@@ -33299,10 +33299,10 @@
         <v>14</v>
       </c>
       <c r="C54">
-        <v>26</v>
+        <v>1582</v>
       </c>
       <c r="D54">
-        <v>1.119242359018511</v>
+        <v>68.10159276797245</v>
       </c>
       <c r="E54">
         <v>2323</v>
@@ -33313,10 +33313,10 @@
         <v>19</v>
       </c>
       <c r="C55">
-        <v>1369</v>
+        <v>1182</v>
       </c>
       <c r="D55">
-        <v>58.9324149806285</v>
+        <v>50.88247955230306</v>
       </c>
       <c r="E55">
         <v>2323</v>
@@ -33330,10 +33330,10 @@
         <v>6</v>
       </c>
       <c r="C56">
-        <v>1352</v>
+        <v>2117</v>
       </c>
       <c r="D56">
-        <v>57.21540414727042</v>
+        <v>89.58950486669488</v>
       </c>
       <c r="E56">
         <v>2363</v>
@@ -33344,10 +33344,10 @@
         <v>11</v>
       </c>
       <c r="C57">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>1.354210749047821</v>
+        <v>0.04231908590774439</v>
       </c>
       <c r="E57">
         <v>2363</v>
@@ -33358,10 +33358,10 @@
         <v>8</v>
       </c>
       <c r="C58">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D58">
-        <v>2.115954295387219</v>
+        <v>0.8040626322471436</v>
       </c>
       <c r="E58">
         <v>2363</v>
@@ -33375,10 +33375,10 @@
         <v>10</v>
       </c>
       <c r="C59">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D59">
-        <v>1.120206807410599</v>
+        <v>0.1292546316242999</v>
       </c>
       <c r="E59">
         <v>2321</v>
@@ -33389,10 +33389,10 @@
         <v>13</v>
       </c>
       <c r="C60">
-        <v>80</v>
+        <v>1935</v>
       </c>
       <c r="D60">
-        <v>3.446790176647997</v>
+        <v>83.36923739767342</v>
       </c>
       <c r="E60">
         <v>2321</v>
@@ -33403,10 +33403,10 @@
         <v>14</v>
       </c>
       <c r="C61">
-        <v>30</v>
+        <v>1580</v>
       </c>
       <c r="D61">
-        <v>1.292546316242999</v>
+        <v>68.07410598879792</v>
       </c>
       <c r="E61">
         <v>2321</v>
@@ -33420,10 +33420,10 @@
         <v>16</v>
       </c>
       <c r="C62">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D62">
-        <v>0.603708495040966</v>
+        <v>0.129366106080207</v>
       </c>
       <c r="E62">
         <v>2319</v>
@@ -33434,10 +33434,10 @@
         <v>7</v>
       </c>
       <c r="C63">
-        <v>111</v>
+        <v>8</v>
       </c>
       <c r="D63">
-        <v>4.786545924967658</v>
+        <v>0.344976282880552</v>
       </c>
       <c r="E63">
         <v>2319</v>
@@ -33448,10 +33448,10 @@
         <v>19</v>
       </c>
       <c r="C64">
-        <v>1363</v>
+        <v>1183</v>
       </c>
       <c r="D64">
-        <v>58.77533419577404</v>
+        <v>51.01336783096162</v>
       </c>
       <c r="E64">
         <v>2319</v>
@@ -33465,10 +33465,10 @@
         <v>10</v>
       </c>
       <c r="C65">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D65">
-        <v>1.118760757314974</v>
+        <v>0.1290877796901893</v>
       </c>
       <c r="E65">
         <v>2324</v>
@@ -33479,10 +33479,10 @@
         <v>13</v>
       </c>
       <c r="C66">
-        <v>35</v>
+        <v>1933</v>
       </c>
       <c r="D66">
-        <v>1.506024096385542</v>
+        <v>83.17555938037866</v>
       </c>
       <c r="E66">
         <v>2324</v>
@@ -33493,10 +33493,10 @@
         <v>19</v>
       </c>
       <c r="C67">
-        <v>1332</v>
+        <v>1206</v>
       </c>
       <c r="D67">
-        <v>57.31497418244407</v>
+        <v>51.89328743545612</v>
       </c>
       <c r="E67">
         <v>2324</v>
@@ -33510,10 +33510,10 @@
         <v>13</v>
       </c>
       <c r="C68">
-        <v>136</v>
+        <v>1958</v>
       </c>
       <c r="D68">
-        <v>5.789697743720732</v>
+        <v>83.3546189868029</v>
       </c>
       <c r="E68">
         <v>2349</v>
@@ -33524,10 +33524,10 @@
         <v>6</v>
       </c>
       <c r="C69">
-        <v>1408</v>
+        <v>2104</v>
       </c>
       <c r="D69">
-        <v>59.94040017028522</v>
+        <v>89.57002979991485</v>
       </c>
       <c r="E69">
         <v>2349</v>
@@ -33538,10 +33538,10 @@
         <v>11</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70">
-        <v>0.08514261387824607</v>
+        <v>0.04257130693912303</v>
       </c>
       <c r="E70">
         <v>2349</v>
@@ -33555,10 +33555,10 @@
         <v>6</v>
       </c>
       <c r="C71">
-        <v>1357</v>
+        <v>2094</v>
       </c>
       <c r="D71">
-        <v>57.991452991453</v>
+        <v>89.48717948717949</v>
       </c>
       <c r="E71">
         <v>2340</v>
@@ -33569,10 +33569,10 @@
         <v>14</v>
       </c>
       <c r="C72">
-        <v>30</v>
+        <v>1597</v>
       </c>
       <c r="D72">
-        <v>1.282051282051282</v>
+        <v>68.24786324786325</v>
       </c>
       <c r="E72">
         <v>2340</v>
@@ -33583,10 +33583,10 @@
         <v>11</v>
       </c>
       <c r="C73">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D73">
-        <v>1.495726495726496</v>
+        <v>0.04273504273504274</v>
       </c>
       <c r="E73">
         <v>2340</v>
@@ -33614,10 +33614,10 @@
         <v>19</v>
       </c>
       <c r="C75">
-        <v>1278</v>
+        <v>1221</v>
       </c>
       <c r="D75">
-        <v>54.68549422336329</v>
+        <v>52.24646983311938</v>
       </c>
       <c r="E75">
         <v>2337</v>
@@ -33628,10 +33628,10 @@
         <v>11</v>
       </c>
       <c r="C76">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D76">
-        <v>1.198117244330338</v>
+        <v>0.2139495079161318</v>
       </c>
       <c r="E76">
         <v>2337</v>
@@ -33659,10 +33659,10 @@
         <v>6</v>
       </c>
       <c r="C78">
-        <v>1324</v>
+        <v>2095</v>
       </c>
       <c r="D78">
-        <v>56.55702691157624</v>
+        <v>89.49167022639898</v>
       </c>
       <c r="E78">
         <v>2341</v>
@@ -33673,10 +33673,10 @@
         <v>11</v>
       </c>
       <c r="C79">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D79">
-        <v>1.196070055531824</v>
+        <v>0.2135839384878257</v>
       </c>
       <c r="E79">
         <v>2341</v>
@@ -33704,10 +33704,10 @@
         <v>6</v>
       </c>
       <c r="C81">
-        <v>1366</v>
+        <v>2077</v>
       </c>
       <c r="D81">
-        <v>58.80327163151098</v>
+        <v>89.41024537236333</v>
       </c>
       <c r="E81">
         <v>2323</v>
@@ -33718,10 +33718,10 @@
         <v>19</v>
       </c>
       <c r="C82">
-        <v>1358</v>
+        <v>1182</v>
       </c>
       <c r="D82">
-        <v>58.45888936719759</v>
+        <v>50.88247955230306</v>
       </c>
       <c r="E82">
         <v>2323</v>
@@ -33735,10 +33735,10 @@
         <v>7</v>
       </c>
       <c r="C83">
-        <v>1310</v>
+        <v>1263</v>
       </c>
       <c r="D83">
-        <v>55.53200508690123</v>
+        <v>53.53963543874522</v>
       </c>
       <c r="E83">
         <v>2359</v>
@@ -33749,10 +33749,10 @@
         <v>11</v>
       </c>
       <c r="C84">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>1.35650699448919</v>
+        <v>0.0423908435777872</v>
       </c>
       <c r="E84">
         <v>2359</v>
@@ -33763,10 +33763,10 @@
         <v>8</v>
       </c>
       <c r="C85">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D85">
-        <v>2.11954217888936</v>
+        <v>0.8054260279779568</v>
       </c>
       <c r="E85">
         <v>2359</v>
@@ -33780,10 +33780,10 @@
         <v>10</v>
       </c>
       <c r="C86">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D86">
-        <v>1.366353543979505</v>
+        <v>0.1280956447480786</v>
       </c>
       <c r="E86">
         <v>2342</v>
@@ -33794,10 +33794,10 @@
         <v>6</v>
       </c>
       <c r="C87">
-        <v>1362</v>
+        <v>2096</v>
       </c>
       <c r="D87">
-        <v>58.15542271562767</v>
+        <v>89.49615713065756</v>
       </c>
       <c r="E87">
         <v>2342</v>
@@ -33808,10 +33808,10 @@
         <v>8</v>
       </c>
       <c r="C88">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="D88">
-        <v>3.159692570452605</v>
+        <v>0.9393680614859093</v>
       </c>
       <c r="E88">
         <v>2342</v>
@@ -33825,10 +33825,10 @@
         <v>10</v>
       </c>
       <c r="C89">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="D89">
-        <v>2.355460385438972</v>
+        <v>0.1284796573875803</v>
       </c>
       <c r="E89">
         <v>2335</v>
@@ -33839,10 +33839,10 @@
         <v>14</v>
       </c>
       <c r="C90">
-        <v>59</v>
+        <v>1616</v>
       </c>
       <c r="D90">
-        <v>2.526766595289079</v>
+        <v>69.20770877944325</v>
       </c>
       <c r="E90">
         <v>2335</v>
@@ -33853,10 +33853,10 @@
         <v>8</v>
       </c>
       <c r="C91">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="D91">
-        <v>4.582441113490364</v>
+        <v>0.9421841541755889</v>
       </c>
       <c r="E91">
         <v>2335</v>
@@ -33870,10 +33870,10 @@
         <v>13</v>
       </c>
       <c r="C92">
-        <v>149</v>
+        <v>1939</v>
       </c>
       <c r="D92">
-        <v>6.394849785407724</v>
+        <v>83.21888412017168</v>
       </c>
       <c r="E92">
         <v>2330</v>
@@ -33884,10 +33884,10 @@
         <v>6</v>
       </c>
       <c r="C93">
-        <v>1404</v>
+        <v>2085</v>
       </c>
       <c r="D93">
-        <v>60.25751072961374</v>
+        <v>89.48497854077253</v>
       </c>
       <c r="E93">
         <v>2330</v>
@@ -33898,10 +33898,10 @@
         <v>7</v>
       </c>
       <c r="C94">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D94">
-        <v>1.244635193133047</v>
+        <v>0.1716738197424893</v>
       </c>
       <c r="E94">
         <v>2330</v>
@@ -33915,10 +33915,10 @@
         <v>10</v>
       </c>
       <c r="C95">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="D95">
-        <v>4.533789563729684</v>
+        <v>0.3849443969204448</v>
       </c>
       <c r="E95">
         <v>2338</v>
@@ -33929,10 +33929,10 @@
         <v>13</v>
       </c>
       <c r="C96">
-        <v>143</v>
+        <v>1991</v>
       </c>
       <c r="D96">
-        <v>6.11633875106929</v>
+        <v>85.15825491873396</v>
       </c>
       <c r="E96">
         <v>2338</v>
@@ -33943,10 +33943,10 @@
         <v>46</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>0.08554319931565441</v>
+        <v>0.0427715996578272</v>
       </c>
       <c r="E97">
         <v>2338</v>
@@ -33960,10 +33960,10 @@
         <v>16</v>
       </c>
       <c r="C98">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D98">
-        <v>1.294777729823047</v>
+        <v>0.3021148036253776</v>
       </c>
       <c r="E98">
         <v>2317</v>
@@ -33974,10 +33974,10 @@
         <v>10</v>
       </c>
       <c r="C99">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D99">
-        <v>1.122140699179974</v>
+        <v>0.1294777729823047</v>
       </c>
       <c r="E99">
         <v>2317</v>
@@ -33988,10 +33988,10 @@
         <v>19</v>
       </c>
       <c r="C100">
-        <v>1347</v>
+        <v>1203</v>
       </c>
       <c r="D100">
-        <v>58.13552006905481</v>
+        <v>51.92058696590419</v>
       </c>
       <c r="E100">
         <v>2317</v>
@@ -34005,10 +34005,10 @@
         <v>16</v>
       </c>
       <c r="C101">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D101">
-        <v>1.365770379854887</v>
+        <v>0.1280409731113956</v>
       </c>
       <c r="E101">
         <v>2343</v>
@@ -34019,10 +34019,10 @@
         <v>6</v>
       </c>
       <c r="C102">
-        <v>1445</v>
+        <v>2097</v>
       </c>
       <c r="D102">
-        <v>61.67306871532223</v>
+        <v>89.50064020486556</v>
       </c>
       <c r="E102">
         <v>2343</v>
@@ -34033,10 +34033,10 @@
         <v>8</v>
       </c>
       <c r="C103">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="D103">
-        <v>5.932565087494665</v>
+        <v>0.8962868117797695</v>
       </c>
       <c r="E103">
         <v>2343</v>
@@ -34050,10 +34050,10 @@
         <v>13</v>
       </c>
       <c r="C104">
-        <v>40</v>
+        <v>1954</v>
       </c>
       <c r="D104">
-        <v>1.705756929637527</v>
+        <v>83.32622601279319</v>
       </c>
       <c r="E104">
         <v>2345</v>
@@ -34064,10 +34064,10 @@
         <v>19</v>
       </c>
       <c r="C105">
-        <v>1362</v>
+        <v>1203</v>
       </c>
       <c r="D105">
-        <v>58.08102345415779</v>
+        <v>51.30063965884861</v>
       </c>
       <c r="E105">
         <v>2345</v>
@@ -34078,10 +34078,10 @@
         <v>11</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>0.08528784648187633</v>
+        <v>0.04264392324093817</v>
       </c>
       <c r="E106">
         <v>2345</v>
@@ -34095,10 +34095,10 @@
         <v>16</v>
       </c>
       <c r="C107">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D107">
-        <v>1.368106028217187</v>
+        <v>0.1282599401453613</v>
       </c>
       <c r="E107">
         <v>2339</v>
@@ -34109,10 +34109,10 @@
         <v>7</v>
       </c>
       <c r="C108">
-        <v>1405</v>
+        <v>1245</v>
       </c>
       <c r="D108">
-        <v>60.06840530141086</v>
+        <v>53.22787516032492</v>
       </c>
       <c r="E108">
         <v>2339</v>
@@ -34123,10 +34123,10 @@
         <v>8</v>
       </c>
       <c r="C109">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="D109">
-        <v>5.942710560068405</v>
+        <v>0.8978195810175289</v>
       </c>
       <c r="E109">
         <v>2339</v>
@@ -34140,10 +34140,10 @@
         <v>16</v>
       </c>
       <c r="C110">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D110">
-        <v>0.7685738684884714</v>
+        <v>0.1280956447480786</v>
       </c>
       <c r="E110">
         <v>2342</v>
@@ -34154,10 +34154,10 @@
         <v>6</v>
       </c>
       <c r="C111">
-        <v>1407</v>
+        <v>2096</v>
       </c>
       <c r="D111">
-        <v>60.07685738684885</v>
+        <v>89.49615713065756</v>
       </c>
       <c r="E111">
         <v>2342</v>
@@ -34168,10 +34168,10 @@
         <v>11</v>
       </c>
       <c r="C112">
-        <v>108</v>
+        <v>4</v>
       </c>
       <c r="D112">
-        <v>4.611443210930828</v>
+        <v>0.1707941929974381</v>
       </c>
       <c r="E112">
         <v>2342</v>
@@ -34185,10 +34185,10 @@
         <v>13</v>
       </c>
       <c r="C113">
-        <v>120</v>
+        <v>1966</v>
       </c>
       <c r="D113">
-        <v>5.121638924455826</v>
+        <v>83.90951771233462</v>
       </c>
       <c r="E113">
         <v>2343</v>
@@ -34199,10 +34199,10 @@
         <v>14</v>
       </c>
       <c r="C114">
-        <v>55</v>
+        <v>1622</v>
       </c>
       <c r="D114">
-        <v>2.347417840375587</v>
+        <v>69.22748612889458</v>
       </c>
       <c r="E114">
         <v>2343</v>
@@ -34213,10 +34213,10 @@
         <v>8</v>
       </c>
       <c r="C115">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="D115">
-        <v>4.396073410157917</v>
+        <v>0.7682458386683738</v>
       </c>
       <c r="E115">
         <v>2343</v>
@@ -34230,10 +34230,10 @@
         <v>10</v>
       </c>
       <c r="C116">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D116">
-        <v>1.36869118905047</v>
+        <v>0.1283147989734816</v>
       </c>
       <c r="E116">
         <v>2338</v>
@@ -34244,10 +34244,10 @@
         <v>7</v>
       </c>
       <c r="C117">
-        <v>1320</v>
+        <v>1266</v>
       </c>
       <c r="D117">
-        <v>56.4585115483319</v>
+        <v>54.14884516680923</v>
       </c>
       <c r="E117">
         <v>2338</v>
@@ -34258,10 +34258,10 @@
         <v>8</v>
       </c>
       <c r="C118">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="D118">
-        <v>3.165098374679213</v>
+        <v>0.9409751924721984</v>
       </c>
       <c r="E118">
         <v>2338</v>
@@ -34275,10 +34275,10 @@
         <v>6</v>
       </c>
       <c r="C119">
-        <v>1310</v>
+        <v>2097</v>
       </c>
       <c r="D119">
-        <v>55.91122492530943</v>
+        <v>89.50064020486556</v>
       </c>
       <c r="E119">
         <v>2343</v>
@@ -34289,10 +34289,10 @@
         <v>7</v>
       </c>
       <c r="C120">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="D120">
-        <v>1.579172001707213</v>
+        <v>0.2560819462227913</v>
       </c>
       <c r="E120">
         <v>2343</v>
@@ -34303,10 +34303,10 @@
         <v>11</v>
       </c>
       <c r="C121">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D121">
-        <v>0.6828851899274435</v>
+        <v>0.04268032437046522</v>
       </c>
       <c r="E121">
         <v>2343</v>
@@ -34320,10 +34320,10 @@
         <v>16</v>
       </c>
       <c r="C122">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="D122">
-        <v>2.440068493150685</v>
+        <v>0.1284246575342466</v>
       </c>
       <c r="E122">
         <v>2336</v>
@@ -34334,10 +34334,10 @@
         <v>14</v>
       </c>
       <c r="C123">
-        <v>118</v>
+        <v>1619</v>
       </c>
       <c r="D123">
-        <v>5.051369863013699</v>
+        <v>69.30650684931507</v>
       </c>
       <c r="E123">
         <v>2336</v>
@@ -34348,10 +34348,10 @@
         <v>8</v>
       </c>
       <c r="C124">
-        <v>170</v>
+        <v>21</v>
       </c>
       <c r="D124">
-        <v>7.277397260273973</v>
+        <v>0.898972602739726</v>
       </c>
       <c r="E124">
         <v>2336</v>
@@ -34365,10 +34365,10 @@
         <v>13</v>
       </c>
       <c r="C125">
-        <v>46</v>
+        <v>1935</v>
       </c>
       <c r="D125">
-        <v>1.977644024075666</v>
+        <v>83.19002579535683</v>
       </c>
       <c r="E125">
         <v>2326</v>
@@ -34379,10 +34379,10 @@
         <v>7</v>
       </c>
       <c r="C126">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D126">
-        <v>0.2149613069647464</v>
+        <v>0.1719690455717971</v>
       </c>
       <c r="E126">
         <v>2326</v>
@@ -34393,10 +34393,10 @@
         <v>19</v>
       </c>
       <c r="C127">
-        <v>1358</v>
+        <v>1186</v>
       </c>
       <c r="D127">
-        <v>58.38349097162511</v>
+        <v>50.98882201203784</v>
       </c>
       <c r="E127">
         <v>2326</v>
@@ -34410,10 +34410,10 @@
         <v>16</v>
       </c>
       <c r="C128">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D128">
-        <v>1.769529564091498</v>
+        <v>0.3021148036253776</v>
       </c>
       <c r="E128">
         <v>2317</v>
@@ -34424,10 +34424,10 @@
         <v>10</v>
       </c>
       <c r="C129">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D129">
-        <v>1.122140699179974</v>
+        <v>0.1294777729823047</v>
       </c>
       <c r="E129">
         <v>2317</v>
@@ -34438,10 +34438,10 @@
         <v>7</v>
       </c>
       <c r="C130">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="D130">
-        <v>4.963314630988346</v>
+        <v>0.561070349589987</v>
       </c>
       <c r="E130">
         <v>2317</v>
@@ -34455,10 +34455,10 @@
         <v>13</v>
       </c>
       <c r="C131">
-        <v>74</v>
+        <v>1983</v>
       </c>
       <c r="D131">
-        <v>3.128964059196617</v>
+        <v>83.8477801268499</v>
       </c>
       <c r="E131">
         <v>2365</v>
@@ -34469,10 +34469,10 @@
         <v>11</v>
       </c>
       <c r="C132">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D132">
-        <v>1.353065539112051</v>
+        <v>0.04228329809725159</v>
       </c>
       <c r="E132">
         <v>2365</v>
@@ -34483,10 +34483,10 @@
         <v>8</v>
       </c>
       <c r="C133">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D133">
-        <v>2.114164904862579</v>
+        <v>0.8033826638477801</v>
       </c>
       <c r="E133">
         <v>2365</v>
@@ -34500,10 +34500,10 @@
         <v>16</v>
       </c>
       <c r="C134">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D134">
-        <v>1.292546316242999</v>
+        <v>0.3015941404566997</v>
       </c>
       <c r="E134">
         <v>2321</v>
@@ -34514,10 +34514,10 @@
         <v>10</v>
       </c>
       <c r="C135">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D135">
-        <v>1.120206807410599</v>
+        <v>0.1292546316242999</v>
       </c>
       <c r="E135">
         <v>2321</v>
@@ -34528,10 +34528,10 @@
         <v>6</v>
       </c>
       <c r="C136">
-        <v>1387</v>
+        <v>2075</v>
       </c>
       <c r="D136">
-        <v>59.75872468763465</v>
+        <v>89.40112020680741</v>
       </c>
       <c r="E136">
         <v>2321</v>
@@ -34545,10 +34545,10 @@
         <v>16</v>
       </c>
       <c r="C137">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D137">
-        <v>1.368106028217187</v>
+        <v>0.1282599401453613</v>
       </c>
       <c r="E137">
         <v>2339</v>
@@ -34559,10 +34559,10 @@
         <v>19</v>
       </c>
       <c r="C138">
-        <v>1405</v>
+        <v>1245</v>
       </c>
       <c r="D138">
-        <v>60.06840530141086</v>
+        <v>53.22787516032492</v>
       </c>
       <c r="E138">
         <v>2339</v>
@@ -34573,10 +34573,10 @@
         <v>8</v>
       </c>
       <c r="C139">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="D139">
-        <v>5.942710560068405</v>
+        <v>0.8978195810175289</v>
       </c>
       <c r="E139">
         <v>2339</v>
@@ -34590,10 +34590,10 @@
         <v>16</v>
       </c>
       <c r="C140">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D140">
-        <v>0.7698887938408896</v>
+        <v>0.1283147989734816</v>
       </c>
       <c r="E140">
         <v>2338</v>
@@ -34604,10 +34604,10 @@
         <v>7</v>
       </c>
       <c r="C141">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="D141">
-        <v>5.816937553464499</v>
+        <v>0.427715996578272</v>
       </c>
       <c r="E141">
         <v>2338</v>
@@ -34618,10 +34618,10 @@
         <v>11</v>
       </c>
       <c r="C142">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="D142">
-        <v>4.662104362703165</v>
+        <v>0.1710863986313088</v>
       </c>
       <c r="E142">
         <v>2338</v>
@@ -34635,10 +34635,10 @@
         <v>13</v>
       </c>
       <c r="C143">
-        <v>56</v>
+        <v>1964</v>
       </c>
       <c r="D143">
-        <v>2.387041773231032</v>
+        <v>83.71696504688832</v>
       </c>
       <c r="E143">
         <v>2346</v>
@@ -34649,10 +34649,10 @@
         <v>7</v>
       </c>
       <c r="C144">
-        <v>1404</v>
+        <v>1248</v>
       </c>
       <c r="D144">
-        <v>59.846547314578</v>
+        <v>53.19693094629157</v>
       </c>
       <c r="E144">
         <v>2346</v>
@@ -34663,10 +34663,10 @@
         <v>8</v>
       </c>
       <c r="C145">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D145">
-        <v>2.003410059676044</v>
+        <v>0.7672634271099744</v>
       </c>
       <c r="E145">
         <v>2346</v>
@@ -34680,10 +34680,10 @@
         <v>14</v>
       </c>
       <c r="C146">
-        <v>7</v>
+        <v>1578</v>
       </c>
       <c r="D146">
-        <v>0.3021148036253776</v>
+        <v>68.10530858869227</v>
       </c>
       <c r="E146">
         <v>2317</v>
@@ -34694,10 +34694,10 @@
         <v>7</v>
       </c>
       <c r="C147">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="D147">
-        <v>3.021148036253777</v>
+        <v>0.172637030643073</v>
       </c>
       <c r="E147">
         <v>2317</v>
@@ -34708,10 +34708,10 @@
         <v>19</v>
       </c>
       <c r="C148">
-        <v>1311</v>
+        <v>1180</v>
       </c>
       <c r="D148">
-        <v>56.58178679326716</v>
+        <v>50.92792403970652</v>
       </c>
       <c r="E148">
         <v>2317</v>
@@ -34725,10 +34725,10 @@
         <v>16</v>
       </c>
       <c r="C149">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D149">
-        <v>1.357082273112807</v>
+        <v>0.1272264631043257</v>
       </c>
       <c r="E149">
         <v>2358</v>
@@ -34739,10 +34739,10 @@
         <v>11</v>
       </c>
       <c r="C150">
-        <v>118</v>
+        <v>4</v>
       </c>
       <c r="D150">
-        <v>5.004240882103478</v>
+        <v>0.1696352841391009</v>
       </c>
       <c r="E150">
         <v>2358</v>
@@ -34753,10 +34753,10 @@
         <v>8</v>
       </c>
       <c r="C151">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="D151">
-        <v>6.022052586938083</v>
+        <v>0.9329940627650551</v>
       </c>
       <c r="E151">
         <v>2358</v>
